--- a/src/output.xlsx
+++ b/src/output.xlsx
@@ -8,8 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet_1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Sheet_2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet_5" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -545,51 +544,51 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>99004429</v>
+        <v>99004415</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1NT17IS163</t>
+          <t>1NT17IS138</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7.22</v>
+        <v>8.99</v>
       </c>
       <c r="D2" t="n">
-        <v>6.8</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>7.94</v>
+        <v>8.51</v>
       </c>
       <c r="F2" t="n">
-        <v>7.28</v>
+        <v>8.33</v>
       </c>
       <c r="G2" t="n">
-        <v>8.81</v>
+        <v>6.94</v>
       </c>
       <c r="H2" t="n">
-        <v>9.52</v>
+        <v>8.25</v>
       </c>
       <c r="I2" t="n">
-        <v>7.44</v>
+        <v>9.02</v>
       </c>
       <c r="J2" t="n">
-        <v>8.109999999999999</v>
+        <v>7.03</v>
       </c>
       <c r="K2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3</v>
+      </c>
+      <c r="O2" t="n">
         <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" t="n">
-        <v>5</v>
       </c>
       <c r="P2" t="n">
         <v>5</v>
@@ -598,195 +597,10 @@
         <v>4</v>
       </c>
       <c r="R2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S2" t="n">
-        <v>5</v>
-      </c>
-      <c r="T2" t="n">
         <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:T2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>USN</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>SEM_1</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>SEM_2</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>SEM_3</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>SEM_4</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>SEM_5</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>SEM_6</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>SEM_7</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>SEM_8</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>HOL_1</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>HOL_2</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>HOL_3</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>HOL_4</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>HOL_5</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>HOL_6</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>HOL_7</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>HOL_8</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>HOL_9</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>HOL_10</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>99004429</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1NT17IS168</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6.45</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.26</v>
-      </c>
-      <c r="E2" t="n">
-        <v>9.42</v>
-      </c>
-      <c r="F2" t="n">
-        <v>8.92</v>
-      </c>
-      <c r="G2" t="n">
-        <v>7.49</v>
-      </c>
-      <c r="H2" t="n">
-        <v>8.35</v>
-      </c>
-      <c r="I2" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="J2" t="n">
-        <v>6.55</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>4</v>
-      </c>
-      <c r="M2" t="n">
-        <v>2</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2</v>
-      </c>
-      <c r="R2" t="n">
-        <v>2</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2</v>
       </c>
       <c r="T2" t="n">
         <v>3</v>
